--- a/simulations/cleaned_inclusion_exclusion/van_de_Schoot_2017 IEC_clean/output/tables/time_to_discovery/tds_sim.xlsx
+++ b/simulations/cleaned_inclusion_exclusion/van_de_Schoot_2017 IEC_clean/output/tables/time_to_discovery/tds_sim.xlsx
@@ -422,10 +422,10 @@
         <v>53</v>
       </c>
       <c r="C3">
-        <v>1441</v>
+        <v>157</v>
       </c>
       <c r="D3">
-        <v>1441</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -444,10 +444,10 @@
         <v>118</v>
       </c>
       <c r="C5">
-        <v>1400</v>
+        <v>54</v>
       </c>
       <c r="D5">
-        <v>1400</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -466,10 +466,10 @@
         <v>464</v>
       </c>
       <c r="C7">
-        <v>1382</v>
+        <v>55</v>
       </c>
       <c r="D7">
-        <v>1382</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -488,10 +488,10 @@
         <v>732</v>
       </c>
       <c r="C9">
-        <v>1443</v>
+        <v>185</v>
       </c>
       <c r="D9">
-        <v>1443</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -510,10 +510,10 @@
         <v>769</v>
       </c>
       <c r="C11">
-        <v>1375</v>
+        <v>130</v>
       </c>
       <c r="D11">
-        <v>1375</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -532,10 +532,10 @@
         <v>833</v>
       </c>
       <c r="C13">
-        <v>1394</v>
+        <v>129</v>
       </c>
       <c r="D13">
-        <v>1394</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -554,10 +554,10 @@
         <v>904</v>
       </c>
       <c r="C15">
-        <v>1340</v>
+        <v>105</v>
       </c>
       <c r="D15">
-        <v>1340</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -576,10 +576,10 @@
         <v>955</v>
       </c>
       <c r="C17">
-        <v>1393</v>
+        <v>63</v>
       </c>
       <c r="D17">
-        <v>1393</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -598,10 +598,10 @@
         <v>1035</v>
       </c>
       <c r="C19">
-        <v>1430</v>
+        <v>149</v>
       </c>
       <c r="D19">
-        <v>1430</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -620,10 +620,10 @@
         <v>1182</v>
       </c>
       <c r="C21">
-        <v>1428</v>
+        <v>150</v>
       </c>
       <c r="D21">
-        <v>1428</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -642,10 +642,10 @@
         <v>1250</v>
       </c>
       <c r="C23">
-        <v>1447</v>
+        <v>143</v>
       </c>
       <c r="D23">
-        <v>1447</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -664,10 +664,10 @@
         <v>1358</v>
       </c>
       <c r="C25">
-        <v>1421</v>
+        <v>85</v>
       </c>
       <c r="D25">
-        <v>1421</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -686,10 +686,10 @@
         <v>1431</v>
       </c>
       <c r="C27">
-        <v>1603</v>
+        <v>208</v>
       </c>
       <c r="D27">
-        <v>1603</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -708,10 +708,10 @@
         <v>1516</v>
       </c>
       <c r="C29">
-        <v>1477</v>
+        <v>183</v>
       </c>
       <c r="D29">
-        <v>1477</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -719,10 +719,10 @@
         <v>1556</v>
       </c>
       <c r="C30">
-        <v>1437</v>
+        <v>142</v>
       </c>
       <c r="D30">
-        <v>1437</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -741,10 +741,10 @@
         <v>1567</v>
       </c>
       <c r="C32">
-        <v>1318</v>
+        <v>299</v>
       </c>
       <c r="D32">
-        <v>1318</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -763,10 +763,10 @@
         <v>1748</v>
       </c>
       <c r="C34">
-        <v>1342</v>
+        <v>106</v>
       </c>
       <c r="D34">
-        <v>1342</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -785,10 +785,10 @@
         <v>1883</v>
       </c>
       <c r="C36">
-        <v>1368</v>
+        <v>175</v>
       </c>
       <c r="D36">
-        <v>1368</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -807,10 +807,10 @@
         <v>1996</v>
       </c>
       <c r="C38">
-        <v>1399</v>
+        <v>69</v>
       </c>
       <c r="D38">
-        <v>1399</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -829,10 +829,10 @@
         <v>2281</v>
       </c>
       <c r="C40">
-        <v>1431</v>
+        <v>147</v>
       </c>
       <c r="D40">
-        <v>1431</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -851,10 +851,10 @@
         <v>2498</v>
       </c>
       <c r="C42">
-        <v>1384</v>
+        <v>59</v>
       </c>
       <c r="D42">
-        <v>1384</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -873,10 +873,10 @@
         <v>2547</v>
       </c>
       <c r="C44">
-        <v>1364</v>
+        <v>112</v>
       </c>
       <c r="D44">
-        <v>1364</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -895,10 +895,10 @@
         <v>2626</v>
       </c>
       <c r="C46">
-        <v>1404</v>
+        <v>115</v>
       </c>
       <c r="D46">
-        <v>1404</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -917,10 +917,10 @@
         <v>2742</v>
       </c>
       <c r="C48">
-        <v>1458</v>
+        <v>193</v>
       </c>
       <c r="D48">
-        <v>1458</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -939,10 +939,10 @@
         <v>2805</v>
       </c>
       <c r="C50">
-        <v>1518</v>
+        <v>89</v>
       </c>
       <c r="D50">
-        <v>1518</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -961,10 +961,10 @@
         <v>3078</v>
       </c>
       <c r="C52">
-        <v>1419</v>
+        <v>84</v>
       </c>
       <c r="D52">
-        <v>1419</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -983,10 +983,10 @@
         <v>3316</v>
       </c>
       <c r="C54">
-        <v>1449</v>
+        <v>168</v>
       </c>
       <c r="D54">
-        <v>1449</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1005,10 +1005,10 @@
         <v>3444</v>
       </c>
       <c r="C56">
-        <v>1788</v>
+        <v>691</v>
       </c>
       <c r="D56">
-        <v>1788</v>
+        <v>691</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1027,10 +1027,10 @@
         <v>3610</v>
       </c>
       <c r="C58">
-        <v>1427</v>
+        <v>145</v>
       </c>
       <c r="D58">
-        <v>1427</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1049,10 +1049,10 @@
         <v>3682</v>
       </c>
       <c r="C60">
-        <v>1324</v>
+        <v>88</v>
       </c>
       <c r="D60">
-        <v>1324</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1071,10 +1071,10 @@
         <v>3771</v>
       </c>
       <c r="C62">
-        <v>1356</v>
+        <v>104</v>
       </c>
       <c r="D62">
-        <v>1356</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1093,10 +1093,10 @@
         <v>3844</v>
       </c>
       <c r="C64">
-        <v>1392</v>
+        <v>87</v>
       </c>
       <c r="D64">
-        <v>1392</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1115,10 +1115,10 @@
         <v>4156</v>
       </c>
       <c r="C66">
-        <v>1328</v>
+        <v>95</v>
       </c>
       <c r="D66">
-        <v>1328</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1137,10 +1137,10 @@
         <v>4203</v>
       </c>
       <c r="C68">
-        <v>1462</v>
+        <v>156</v>
       </c>
       <c r="D68">
-        <v>1462</v>
+        <v>156</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1159,10 +1159,10 @@
         <v>4271</v>
       </c>
       <c r="C70">
-        <v>1416</v>
+        <v>140</v>
       </c>
       <c r="D70">
-        <v>1416</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1181,10 +1181,10 @@
         <v>4329</v>
       </c>
       <c r="C72">
-        <v>1434</v>
+        <v>134</v>
       </c>
       <c r="D72">
-        <v>1434</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1203,10 +1203,10 @@
         <v>4379</v>
       </c>
       <c r="C74">
-        <v>1410</v>
+        <v>67</v>
       </c>
       <c r="D74">
-        <v>1410</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1225,10 +1225,10 @@
         <v>4463</v>
       </c>
       <c r="C76">
-        <v>1336</v>
+        <v>99</v>
       </c>
       <c r="D76">
-        <v>1336</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1239,7 +1239,7 @@
         <v>91.02702702702703</v>
       </c>
       <c r="C77">
-        <v>1419.421052631579</v>
+        <v>141.0526315789474</v>
       </c>
     </row>
   </sheetData>
